--- a/ImportService/App_Data/PBTestFeb2020Tiny.xlsx
+++ b/ImportService/App_Data/PBTestFeb2020Tiny.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
   <si>
     <t>ABEGOUCH</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>173cm</t>
+  </si>
+  <si>
+    <t>SHE</t>
+  </si>
+  <si>
+    <t>Susan Hebbron</t>
+  </si>
+  <si>
+    <t>154cm</t>
   </si>
 </sst>
 </file>
@@ -810,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +984,7 @@
         <v>86</v>
       </c>
       <c r="F6">
-        <v>300</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1049,7 +1058,7 @@
         <v>89</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>20.22</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1059,26 +1068,22 @@
         <v>5000</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="F10">
-        <v>58.59</v>
-      </c>
-      <c r="G10" s="1">
-        <v>43868</v>
-      </c>
-      <c r="H10" s="1">
-        <v>43882</v>
-      </c>
+        <v>422.22</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1088,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>64.31</v>
+        <v>58.59</v>
       </c>
       <c r="G11" s="1">
         <v>43868</v>
@@ -1111,19 +1116,19 @@
         <v>5000</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>3.29</v>
+        <v>64.31</v>
       </c>
       <c r="G12" s="1">
         <v>43868</v>
@@ -1134,22 +1139,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4913</v>
+        <v>5000</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>4.1399999999999997</v>
+        <v>3.29</v>
       </c>
       <c r="G13" s="1">
         <v>43868</v>
@@ -1160,22 +1165,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5000</v>
+        <v>4913</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>6.2</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G14" s="1">
         <v>43868</v>
@@ -1192,16 +1197,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>17.22</v>
+        <v>6.2</v>
       </c>
       <c r="G15" s="1">
         <v>43868</v>
@@ -1212,22 +1217,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>23.67</v>
+        <v>17.22</v>
       </c>
       <c r="G16" s="1">
         <v>43868</v>
@@ -1238,22 +1243,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F17">
-        <v>1.49</v>
+        <v>23.67</v>
       </c>
       <c r="G17" s="1">
         <v>43868</v>
@@ -1264,22 +1269,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4879</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>3.29</v>
+        <v>1.49</v>
       </c>
       <c r="G18" s="1">
         <v>43868</v>
@@ -1290,22 +1295,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4866</v>
+        <v>4879</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="G19" s="1">
         <v>43868</v>
@@ -1316,22 +1321,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5000</v>
+        <v>4866</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="G20" s="1">
         <v>43868</v>
@@ -1342,22 +1347,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4933</v>
+        <v>5000</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>10.82</v>
+        <v>6.2</v>
       </c>
       <c r="G21" s="1">
         <v>43868</v>
@@ -1368,22 +1373,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4997</v>
+        <v>4933</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>17.22</v>
+        <v>10.82</v>
       </c>
       <c r="G22" s="1">
         <v>43868</v>
@@ -1394,22 +1399,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5000</v>
+        <v>4997</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F23">
-        <v>1.36</v>
+        <v>17.22</v>
       </c>
       <c r="G23" s="1">
         <v>43868</v>
@@ -1426,16 +1431,16 @@
         <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>7.27</v>
+        <v>1.36</v>
       </c>
       <c r="G24" s="1">
         <v>43868</v>
@@ -1446,22 +1451,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>3.24</v>
+        <v>7.27</v>
       </c>
       <c r="G25" s="1">
         <v>43868</v>
@@ -1472,22 +1477,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="G26" s="1">
         <v>43868</v>
@@ -1504,16 +1509,16 @@
         <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>5.98</v>
+        <v>3.82</v>
       </c>
       <c r="G27" s="1">
         <v>43868</v>
@@ -1524,22 +1529,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4974</v>
+        <v>5000</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>5.98</v>
       </c>
       <c r="G28" s="1">
         <v>43868</v>
@@ -1550,22 +1555,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>500</v>
+        <v>4974</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>1.22</v>
+        <v>4</v>
       </c>
       <c r="G29" s="1">
         <v>43868</v>
@@ -1579,19 +1584,19 @@
         <v>500</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>15.36</v>
+        <v>1.22</v>
       </c>
       <c r="G30" s="1">
         <v>43868</v>
@@ -1602,22 +1607,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>3.79</v>
+        <v>15.36</v>
       </c>
       <c r="G31" s="1">
         <v>43868</v>
@@ -1628,22 +1633,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>1.55</v>
+        <v>3.79</v>
       </c>
       <c r="G32" s="1">
         <v>43868</v>
@@ -1654,22 +1659,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>13.58</v>
+        <v>1.55</v>
       </c>
       <c r="G33" s="1">
         <v>43868</v>
@@ -1680,22 +1685,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4986</v>
+        <v>5000</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F34">
-        <v>3.29</v>
+        <v>13.58</v>
       </c>
       <c r="G34" s="1">
         <v>43868</v>
@@ -1706,22 +1711,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>500</v>
+        <v>4986</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>31.44</v>
+        <v>3.29</v>
       </c>
       <c r="G35" s="1">
         <v>43868</v>
@@ -1732,22 +1737,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4999</v>
+        <v>500</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F36">
-        <v>3.29</v>
+        <v>31.44</v>
       </c>
       <c r="G36" s="1">
         <v>43868</v>
@@ -1758,22 +1763,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4990</v>
+        <v>4999</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
       <c r="F37">
-        <v>2.65</v>
+        <v>3.29</v>
       </c>
       <c r="G37" s="1">
         <v>43868</v>
@@ -1784,22 +1789,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5000</v>
+        <v>4990</v>
       </c>
       <c r="B38" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="G38" s="1">
         <v>43868</v>
@@ -1810,22 +1815,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4975</v>
+        <v>5000</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="F39">
-        <v>3.29</v>
+        <v>2.5</v>
       </c>
       <c r="G39" s="1">
         <v>43868</v>
@@ -1836,16 +1841,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>4968</v>
+        <v>4975</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
@@ -1862,22 +1867,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5000</v>
+        <v>4968</v>
       </c>
       <c r="B41" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>1.65</v>
+        <v>3.29</v>
       </c>
       <c r="G41" s="1">
         <v>43868</v>
@@ -1894,16 +1899,16 @@
         <v>70</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F42">
-        <v>78.599999999999994</v>
+        <v>1.65</v>
       </c>
       <c r="G42" s="1">
         <v>43868</v>
@@ -1914,22 +1919,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4899</v>
+        <v>5000</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F43">
-        <v>3.29</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="G43" s="1">
         <v>43868</v>
@@ -1940,22 +1945,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5000</v>
+        <v>4899</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>2.41</v>
+        <v>3.29</v>
       </c>
       <c r="G44" s="1">
         <v>43868</v>
@@ -1966,22 +1971,22 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4978</v>
+        <v>5000</v>
       </c>
       <c r="B45" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
         <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="F45">
-        <v>3.29</v>
+        <v>2.41</v>
       </c>
       <c r="G45" s="1">
         <v>43868</v>
@@ -1992,22 +1997,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5000</v>
+        <v>4978</v>
       </c>
       <c r="B46" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>6.04</v>
+        <v>3.29</v>
       </c>
       <c r="G46" s="1">
         <v>43868</v>
@@ -2024,16 +2029,16 @@
         <v>74</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
         <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F47">
-        <v>15.62</v>
+        <v>6.04</v>
       </c>
       <c r="G47" s="1">
         <v>43868</v>
@@ -2044,22 +2049,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="B48" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
         <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F48">
-        <v>1.1599999999999999</v>
+        <v>15.62</v>
       </c>
       <c r="G48" s="1">
         <v>43868</v>
@@ -2070,22 +2075,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>5.54</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G49" s="1">
         <v>43868</v>
@@ -2096,22 +2101,22 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B50" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
         <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F50">
-        <v>6.78</v>
+        <v>5.54</v>
       </c>
       <c r="G50" s="1">
         <v>43868</v>
@@ -2128,21 +2133,47 @@
         <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>76</v>
       </c>
       <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51">
+        <v>6.78</v>
+      </c>
+      <c r="G51" s="1">
+        <v>43868</v>
+      </c>
+      <c r="H51" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>500</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
         <v>83</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>10.47</v>
       </c>
-      <c r="G51" s="1">
-        <v>43868</v>
-      </c>
-      <c r="H51" s="1">
+      <c r="G52" s="1">
+        <v>43868</v>
+      </c>
+      <c r="H52" s="1">
         <v>43882</v>
       </c>
     </row>
